--- a/11.xlsx
+++ b/11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>iPad Air 4 2020</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24,9 +24,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iPad Pro 2019</t>
-  </si>
-  <si>
     <t>iPad Pro 2020</t>
   </si>
   <si>
@@ -51,10 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iPad 9 GEN （7代）2019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iPad Pro 2018</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,11 +60,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iPad   11 / 10.9 policci （英寸）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iPad   10.5 / 10.2 policci （英寸）</t>
+    <t>iPad 7 GEN （7代）2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">iPad 10.5 / 10.2 policci </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（英寸）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">iPad 11 / 10.9 policci </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（英寸）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +153,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -141,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -157,7 +185,9 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -166,7 +196,157 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -175,47 +355,68 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -512,118 +713,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.125" defaultRowHeight="33" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="29.125" style="5"/>
+    <col min="1" max="16384" width="29.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="71.25" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" ht="33" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="33" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:3" ht="33" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:3" ht="33" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:3" ht="33" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:3" ht="33" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" s="2" customFormat="1" ht="71.25" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" ht="33" customHeight="1">
+      <c r="A9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="C9" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="33" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" ht="33" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" ht="33" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" ht="33" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="33" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="33" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" s="9" customFormat="1" ht="71.25" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-    </row>
     <row r="10" spans="1:3" ht="33" customHeight="1">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="33" customHeight="1">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="33" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="33" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="33" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
